--- a/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
+++ b/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
@@ -20,9 +20,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="118">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="134">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市新莊區福營段02960000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段01280000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公園段一小段01280001地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段01280002地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段01280003地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段01280004地號</t>
+  </si>
+  <si>
+    <t>新北市新店區中央段三小段10160000地號</t>
+  </si>
+  <si>
+    <t>600分之120</t>
+  </si>
+  <si>
+    <t>100000分之425</t>
+  </si>
+  <si>
+    <t>1000000分之105046</t>
+  </si>
+  <si>
+    <t>吳秉叡</t>
+  </si>
+  <si>
+    <t>99年03月11曰</t>
+  </si>
+  <si>
+    <t>79年09月05H</t>
+  </si>
+  <si>
+    <t>79年09月05日</t>
+  </si>
+  <si>
+    <t>99年12月24日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超堝石年)</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-09</t>
+  </si>
+  <si>
+    <t>tmp8f8d1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,82 +151,25 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市新莊區福營段0296-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段 0128-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公園段一小段 0128-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段 0128-0002 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段 0128-0003 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段 0128-0004 地號</t>
-  </si>
-  <si>
-    <t>新北市新店區中央段三小段 1016-0000 地號</t>
-  </si>
-  <si>
-    <t>600分之 120</t>
-  </si>
-  <si>
-    <t>100000 分 之425</t>
-  </si>
-  <si>
-    <t>1000000 分 之105046</t>
-  </si>
-  <si>
-    <t>吳秉叡</t>
-  </si>
-  <si>
-    <t>99年03月 11曰</t>
-  </si>
-  <si>
-    <t>79年09月 05 H</t>
-  </si>
-  <si>
-    <t>79年09月 05日</t>
-  </si>
-  <si>
-    <t>99年12月 24日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超堝石年)</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市新莊區福營段00790-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公園段一小段 00844-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公園段一小段 00713-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公園段一小段 00970-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公園段一小段 00843-000 建號</t>
+    <t>新北市新莊區福營段00790000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公園段一小段00844000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公園段一小段00713000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公園段一小段00970000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公園段一小段00843000建號</t>
   </si>
   <si>
     <t>臺北市中正區公園段一小段</t>
   </si>
   <si>
-    <t>臺北市中正區公圜段一小段 00153-000 建號</t>
+    <t>臺北市中正區公圜段一小段00153000建號</t>
   </si>
   <si>
     <t>10分之2</t>
@@ -127,28 +178,28 @@
     <t>全部</t>
   </si>
   <si>
-    <t>100000 分 之551</t>
-  </si>
-  <si>
-    <t>100000 分 之263</t>
-  </si>
-  <si>
-    <t>100000 分</t>
-  </si>
-  <si>
-    <t>100000 分 之153</t>
+    <t>100000分之551</t>
+  </si>
+  <si>
+    <t>100000分之263</t>
+  </si>
+  <si>
+    <t>100000分</t>
+  </si>
+  <si>
+    <t>100000分之153</t>
   </si>
   <si>
     <t>吳秉數</t>
   </si>
   <si>
-    <t>99年07月 01日</t>
-  </si>
-  <si>
-    <t>79年10月 01日</t>
-  </si>
-  <si>
-    <t>79年10月 01 U</t>
+    <t>99年07月01日</t>
+  </si>
+  <si>
+    <t>79年10月01日</t>
+  </si>
+  <si>
+    <t>79年10月01U</t>
   </si>
   <si>
     <t>79年10月</t>
@@ -181,16 +232,16 @@
     <t>臺灣銀行板橋分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行館前分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行光復分 行</t>
-  </si>
-  <si>
-    <t>台北法院郵局（第2 0支 局）</t>
-  </si>
-  <si>
-    <t>立法院郵局（第2 5支局）</t>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行光復分行</t>
+  </si>
+  <si>
+    <t>台北法院郵局（第20支局）</t>
+  </si>
+  <si>
+    <t>立法院郵局（第25支局）</t>
   </si>
   <si>
     <t>臺灣銀行龍山分行</t>
@@ -199,13 +250,13 @@
     <t>彰化商業銀行城内分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行中山分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行桃園分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分 行</t>
+    <t>中國信託商業銀行中山分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行桃園分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
   </si>
   <si>
     <t>中國信託商業銀行城中分</t>
@@ -244,10 +295,10 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>貝萊德環球資產 配置基金</t>
-  </si>
-  <si>
-    <t>安泰臺灣高股息 基金</t>
+    <t>貝萊德環球資產配置基金</t>
+  </si>
+  <si>
+    <t>安泰臺灣高股息基金</t>
   </si>
   <si>
     <t>JF東協基金</t>
@@ -256,7 +307,7 @@
     <t>德盛小龍基金</t>
   </si>
   <si>
-    <t>霸菱全球資源基 金</t>
+    <t>霸菱全球資源基金</t>
   </si>
   <si>
     <t>霸菱東歐基金</t>
@@ -265,19 +316,16 @@
     <t>坦伯頓全球基金</t>
   </si>
   <si>
-    <t>坦伯頓全球拉丁 美洲基金</t>
-  </si>
-  <si>
-    <t>聯博全球高收益 債AT股</t>
-  </si>
-  <si>
-    <t>匯豐全球關鍵資 源基金</t>
-  </si>
-  <si>
-    <t>貝德萊新興市場 基金</t>
-  </si>
-  <si>
-    <t>中國信託商業 銀行城中分行</t>
+    <t>坦伯頓全球拉丁美洲基金</t>
+  </si>
+  <si>
+    <t>聯博全球高收益債AT股</t>
+  </si>
+  <si>
+    <t>匯豐全球關鍵資源基金</t>
+  </si>
+  <si>
+    <t>貝德萊新興市場基金</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -292,7 +340,7 @@
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>安泰人壽55年增值分紅養老 壽險</t>
+    <t>安泰人壽55年增值分紅養老壽險</t>
   </si>
   <si>
     <t>債務人</t>
@@ -313,16 +361,16 @@
     <t>抵押借款</t>
   </si>
   <si>
-    <t>大台北商業銀行城內分行 臺北市中正區重慶南路</t>
-  </si>
-  <si>
-    <t>大台北商業銀行城内分行 臺北市中正區重慶南路</t>
-  </si>
-  <si>
-    <t>101年02月 16日</t>
-  </si>
-  <si>
-    <t>101年03月 14曰</t>
+    <t>大台北商業銀行城內分行臺北市中正區重慶南路</t>
+  </si>
+  <si>
+    <t>大台北商業銀行城内分行臺北市中正區重慶南路</t>
+  </si>
+  <si>
+    <t>101年02月16日</t>
+  </si>
+  <si>
+    <t>101年03月14曰</t>
   </si>
   <si>
     <t>投資</t>
@@ -352,25 +400,25 @@
     <t>福益實業股份有限公司</t>
   </si>
   <si>
-    <t>臺北市忠孝東路五段508號 14樓之3</t>
-  </si>
-  <si>
-    <t>新北市龍安路106巷1號4 樓</t>
+    <t>臺北市忠孝東路五段508號14樓之3</t>
+  </si>
+  <si>
+    <t>新北市龍安路106巷1號4樓</t>
   </si>
   <si>
     <t>新北市成泰路一段2號3樓</t>
   </si>
   <si>
-    <t>100年03月 11曰</t>
-  </si>
-  <si>
-    <t>100年08月 29日</t>
-  </si>
-  <si>
-    <t>99年02月 23日</t>
-  </si>
-  <si>
-    <t>78年07月 01 H</t>
+    <t>100年03月11曰</t>
+  </si>
+  <si>
+    <t>100年08月29日</t>
+  </si>
+  <si>
+    <t>99年02月23日</t>
+  </si>
+  <si>
+    <t>78年07月01H</t>
   </si>
   <si>
     <t>個人投資</t>
@@ -732,13 +780,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,187 +808,355 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>680.11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2">
         <v>6146788</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2002</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>187</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>189.5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2">
         <v>7350000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -958,25 +1174,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -984,22 +1200,22 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>219.58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2">
         <v>470313</v>
@@ -1010,25 +1226,25 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>59.84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1036,25 +1252,25 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <v>2165.17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1062,25 +1278,25 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>983.38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1088,25 +1304,25 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <v>34.75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1114,25 +1330,25 @@
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>2165.17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1140,25 +1356,25 @@
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
         <v>983.38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1176,22 +1392,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1199,16 +1415,16 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1220,16 +1436,16 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1241,16 +1457,16 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1262,16 +1478,16 @@
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1283,16 +1499,16 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1304,16 +1520,16 @@
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1325,16 +1541,16 @@
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1346,16 +1562,16 @@
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1367,16 +1583,16 @@
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1388,16 +1604,16 @@
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1409,16 +1625,16 @@
         <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F12" s="2">
         <v>21444.76</v>
@@ -1432,16 +1648,16 @@
         <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1461,25 +1677,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1487,13 +1703,13 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>229.53</v>
@@ -1502,7 +1718,7 @@
         <v>42.43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2">
         <v>287192.13</v>
@@ -1513,13 +1729,13 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>20312.66</v>
@@ -1528,7 +1744,7 @@
         <v>13.02</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H3" s="2">
         <v>264470.83</v>
@@ -1539,13 +1755,13 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
         <v>92.075</v>
@@ -1554,7 +1770,7 @@
         <v>101.95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2">
         <v>276814.61</v>
@@ -1565,13 +1781,13 @@
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2">
         <v>35.76</v>
@@ -1580,7 +1796,7 @@
         <v>91.96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2">
         <v>96974.27</v>
@@ -1591,13 +1807,13 @@
         <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E6" s="2">
         <v>322.793</v>
@@ -1606,7 +1822,7 @@
         <v>24.63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2">
         <v>234449.1</v>
@@ -1617,13 +1833,13 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2">
         <v>74.78</v>
@@ -1632,7 +1848,7 @@
         <v>96.67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2">
         <v>213175.47</v>
@@ -1643,13 +1859,13 @@
         <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2">
         <v>1111.357</v>
@@ -1658,7 +1874,7 @@
         <v>16.98</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2">
         <v>556482.26</v>
@@ -1669,13 +1885,13 @@
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2">
         <v>128.074</v>
@@ -1684,7 +1900,7 @@
         <v>79.15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H9" s="2">
         <v>298931.68</v>
@@ -1695,13 +1911,13 @@
         <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2">
         <v>5525.521</v>
@@ -1710,7 +1926,7 @@
         <v>4.45</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H10" s="2">
         <v>725092.3</v>
@@ -1721,13 +1937,13 @@
         <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2">
         <v>37660.9</v>
@@ -1736,7 +1952,7 @@
         <v>7.48</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H11" s="2">
         <v>281703.53</v>
@@ -1747,13 +1963,13 @@
         <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2">
         <v>273.75</v>
@@ -1762,7 +1978,7 @@
         <v>29.1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H12" s="2">
         <v>234913.06</v>
@@ -1783,13 +1999,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1797,13 +2013,13 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1821,22 +2037,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1844,22 +2060,22 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>9580000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1867,22 +2083,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1900,22 +2116,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1923,22 +2139,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
         <v>4372000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1946,22 +2162,22 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2">
         <v>4801500</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1969,22 +2185,22 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2">
         <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1992,22 +2208,22 @@
         <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2">
         <v>1650</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
+++ b/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市新莊區福營段02960000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市中正區公圜段一小段01280000地號</t>
@@ -85,9 +88,6 @@
     <t>新北市新店區中央段三小段10160000地號</t>
   </si>
   <si>
-    <t>600分之120</t>
-  </si>
-  <si>
     <t>100000分之425</t>
   </si>
   <si>
@@ -97,9 +97,6 @@
     <t>吳秉叡</t>
   </si>
   <si>
-    <t>99年03月11曰</t>
-  </si>
-  <si>
     <t>79年09月05H</t>
   </si>
   <si>
@@ -130,30 +127,18 @@
     <t>tmp8f8d1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>新北市新莊區福營段00790000建號</t>
   </si>
   <si>
+    <t>10分之2</t>
+  </si>
+  <si>
+    <t>99年07月01日</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
     <t>臺北市中正區公園段一小段00844000建號</t>
   </si>
   <si>
@@ -172,9 +157,6 @@
     <t>臺北市中正區公圜段一小段00153000建號</t>
   </si>
   <si>
-    <t>10分之2</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -193,9 +175,6 @@
     <t>吳秉數</t>
   </si>
   <si>
-    <t>99年07月01日</t>
-  </si>
-  <si>
     <t>79年10月01日</t>
   </si>
   <si>
@@ -205,30 +184,15 @@
     <t>79年10月</t>
   </si>
   <si>
-    <t>新建</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>大台北商業銀行城內分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行板橋分行</t>
   </si>
   <si>
@@ -262,39 +226,18 @@
     <t>中國信託商業銀行城中分</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>公教優惠儲蓄存款</t>
   </si>
   <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>詹文馨</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>貝萊德環球資產配置基金</t>
   </si>
   <si>
@@ -328,69 +271,42 @@
     <t>貝德萊新興市場基金</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
     <t>安泰人壽55年增值分紅養老壽險</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>抵押借款</t>
   </si>
   <si>
     <t>大台北商業銀行城內分行臺北市中正區重慶南路</t>
   </si>
   <si>
+    <t>101年02月16日</t>
+  </si>
+  <si>
+    <t>投資</t>
+  </si>
+  <si>
     <t>大台北商業銀行城内分行臺北市中正區重慶南路</t>
   </si>
   <si>
-    <t>101年02月16日</t>
-  </si>
-  <si>
     <t>101年03月14曰</t>
   </si>
   <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>雄裕建設股份有限公司</t>
   </si>
   <si>
+    <t>臺北市忠孝東路五段508號14樓之3</t>
+  </si>
+  <si>
+    <t>100年03月11曰</t>
+  </si>
+  <si>
+    <t>個人投資</t>
+  </si>
+  <si>
     <t>聖裕投資有限公司</t>
   </si>
   <si>
@@ -400,18 +316,12 @@
     <t>福益實業股份有限公司</t>
   </si>
   <si>
-    <t>臺北市忠孝東路五段508號14樓之3</t>
-  </si>
-  <si>
     <t>新北市龍安路106巷1號4樓</t>
   </si>
   <si>
     <t>新北市成泰路一段2號3樓</t>
   </si>
   <si>
-    <t>100年03月11曰</t>
-  </si>
-  <si>
     <t>100年08月29日</t>
   </si>
   <si>
@@ -419,9 +329,6 @@
   </si>
   <si>
     <t>78年07月01H</t>
-  </si>
-  <si>
-    <t>個人投資</t>
   </si>
 </sst>
 </file>
@@ -780,13 +687,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,19 +736,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>680.11</v>
+        <v>2002</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -850,19 +763,19 @@
         <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2">
-        <v>6146788</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
@@ -871,21 +784,27 @@
         <v>1324</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00425</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>8.5085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2002</v>
+        <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -894,22 +813,22 @@
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -918,21 +837,27 @@
         <v>1324</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00425</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.79475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -944,19 +869,19 @@
         <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
@@ -965,21 +890,27 @@
         <v>1324</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.00425</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
@@ -988,22 +919,22 @@
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
@@ -1012,21 +943,27 @@
         <v>1324</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00425</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -1035,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
@@ -1059,24 +996,30 @@
         <v>1324</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00425</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.4675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>110</v>
+        <v>189.5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1085,19 +1028,19 @@
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7350000</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>24</v>
@@ -1106,57 +1049,16 @@
         <v>1324</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>189.5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7350000</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1324</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="2">
-        <v>20</v>
+      <c r="P7" s="2">
+        <v>0.105046</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>19.906217</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1174,207 +1076,181 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1">
+        <v>219.58</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
+      <c r="H1" s="1">
+        <v>470313</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
-        <v>219.58</v>
+        <v>59.84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="2">
-        <v>470313</v>
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
-        <v>59.84</v>
+        <v>2165.17</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
-        <v>2165.17</v>
+        <v>983.38</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2">
+        <v>34.75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2">
-        <v>983.38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2165.17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2">
-        <v>34.75</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
-        <v>2165.17</v>
+        <v>983.38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2">
-        <v>983.38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1392,275 +1268,252 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>212521</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>212521</v>
+        <v>236438</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>236438</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>248</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>771</v>
+        <v>332435</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>332435</v>
+        <v>1577967</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>1577967</v>
+        <v>709261</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>709261</v>
+        <v>1139508</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>1139508</v>
+        <v>784700</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>784700</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="F11" s="2">
+        <v>21444.76</v>
+      </c>
       <c r="G11" s="2">
-        <v>739</v>
+        <v>632384.53</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="2">
-        <v>21444.76</v>
-      </c>
-      <c r="G12" s="2">
-        <v>632384.53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>68</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1669,7 +1522,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1677,310 +1530,284 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
+      </c>
+      <c r="E1" s="1">
+        <v>229.53</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42.43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="H1" s="1">
+        <v>287192.13</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
-        <v>229.53</v>
+        <v>20312.66</v>
       </c>
       <c r="F2" s="2">
-        <v>42.43</v>
+        <v>13.02</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
-        <v>287192.13</v>
+        <v>264470.83</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2">
-        <v>20312.66</v>
+        <v>92.075</v>
       </c>
       <c r="F3" s="2">
-        <v>13.02</v>
+        <v>101.95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2">
-        <v>264470.83</v>
+        <v>276814.61</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2">
-        <v>92.075</v>
+        <v>35.76</v>
       </c>
       <c r="F4" s="2">
-        <v>101.95</v>
+        <v>91.96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
-        <v>276814.61</v>
+        <v>96974.27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2">
-        <v>35.76</v>
+        <v>322.793</v>
       </c>
       <c r="F5" s="2">
-        <v>91.96</v>
+        <v>24.63</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2">
-        <v>96974.27</v>
+        <v>234449.1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2">
-        <v>322.793</v>
+        <v>74.78</v>
       </c>
       <c r="F6" s="2">
-        <v>24.63</v>
+        <v>96.67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2">
-        <v>234449.1</v>
+        <v>213175.47</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2">
-        <v>74.78</v>
+        <v>1111.357</v>
       </c>
       <c r="F7" s="2">
-        <v>96.67</v>
+        <v>16.98</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2">
-        <v>213175.47</v>
+        <v>556482.26</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2">
-        <v>1111.357</v>
+        <v>128.074</v>
       </c>
       <c r="F8" s="2">
-        <v>16.98</v>
+        <v>79.15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2">
-        <v>556482.26</v>
+        <v>298931.68</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2">
-        <v>128.074</v>
+        <v>5525.521</v>
       </c>
       <c r="F9" s="2">
-        <v>79.15</v>
+        <v>4.45</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2">
-        <v>298931.68</v>
+        <v>725092.3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2">
-        <v>5525.521</v>
+        <v>37660.9</v>
       </c>
       <c r="F10" s="2">
-        <v>4.45</v>
+        <v>7.48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2">
-        <v>725092.3</v>
+        <v>281703.53</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2">
-        <v>37660.9</v>
+        <v>273.75</v>
       </c>
       <c r="F11" s="2">
-        <v>7.48</v>
+        <v>29.1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H11" s="2">
-        <v>281703.53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>97</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="2">
-        <v>273.75</v>
-      </c>
-      <c r="F12" s="2">
-        <v>29.1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="2">
         <v>234913.06</v>
       </c>
     </row>
@@ -1991,35 +1818,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>112</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2029,7 +1842,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2037,68 +1850,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
+      </c>
+      <c r="E1" s="1">
+        <v>9580000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
-        <v>9580000</v>
+        <v>500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>123</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +1898,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2116,114 +1906,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4372000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
-        <v>4372000</v>
+        <v>4801500</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2">
-        <v>4801500</v>
+        <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2">
-        <v>10000000</v>
+        <v>1650</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>131</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1650</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
+++ b/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市新莊區福營段02960000地號</t>
+  </si>
+  <si>
     <t>臺北市中正區公圜段一小段01280000地號</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>新北市新店區中央段三小段10160000地號</t>
   </si>
   <si>
+    <t>600分之120</t>
+  </si>
+  <si>
     <t>100000分之425</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>吳秉叡</t>
   </si>
   <si>
+    <t>99年03月11曰</t>
+  </si>
+  <si>
     <t>79年09月05H</t>
   </si>
   <si>
@@ -130,58 +139,52 @@
     <t>新北市新莊區福營段00790000建號</t>
   </si>
   <si>
+    <t>臺北市中正區公園段一小段00844000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公園段一小段00713000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公園段一小段00970000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公園段一小段00843000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區公圜段一小段00153000建號</t>
+  </si>
+  <si>
     <t>10分之2</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>100000分之551</t>
+  </si>
+  <si>
+    <t>100000分之263</t>
+  </si>
+  <si>
+    <t>100000分之320</t>
+  </si>
+  <si>
+    <t>100000分之153</t>
+  </si>
+  <si>
+    <t>吳秉數</t>
+  </si>
+  <si>
     <t>99年07月01日</t>
   </si>
   <si>
+    <t>79年10月01日</t>
+  </si>
+  <si>
+    <t>79年10月01U</t>
+  </si>
+  <si>
     <t>新建</t>
-  </si>
-  <si>
-    <t>臺北市中正區公園段一小段00844000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公園段一小段00713000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公園段一小段00970000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公園段一小段00843000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區公園段一小段</t>
-  </si>
-  <si>
-    <t>臺北市中正區公圜段一小段00153000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100000分之551</t>
-  </si>
-  <si>
-    <t>100000分之263</t>
-  </si>
-  <si>
-    <t>100000分</t>
-  </si>
-  <si>
-    <t>100000分之153</t>
-  </si>
-  <si>
-    <t>吳秉數</t>
-  </si>
-  <si>
-    <t>79年10月01日</t>
-  </si>
-  <si>
-    <t>79年10月01U</t>
-  </si>
-  <si>
-    <t>79年10月</t>
   </si>
   <si>
     <t>大台北商業銀行城內分行</t>
@@ -687,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,319 +748,372 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2002</v>
+        <v>680.11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6146788</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1324</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.00425</v>
+        <v>0.2</v>
       </c>
       <c r="Q2" s="2">
-        <v>8.5085</v>
+        <v>136.022</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>187</v>
+        <v>2002</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2">
         <v>1324</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.00425</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.79475</v>
+        <v>8.5085</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2">
         <v>1324</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.00425</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.765</v>
+        <v>0.79475</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>1324</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.00425</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.034</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2">
         <v>1324</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.00425</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.4675</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>189.5</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2">
-        <v>7350000</v>
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2">
         <v>1324</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.00425</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.4675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>189.5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7350000</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="2">
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2">
         <v>20</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P8" s="2">
         <v>0.105046</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q8" s="2">
         <v>19.906217</v>
       </c>
     </row>
@@ -1068,7 +1124,724 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
+        <v>219.58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2">
+        <v>470313</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>43.916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2">
+        <v>59.84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>59.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2165.17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.00551</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>11.9300867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
+        <v>983.38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
+        <v>28</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00263</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2.5862894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2">
+        <v>34.75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>29</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2165.17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
+        <v>30</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0032</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>6.928544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2">
+        <v>983.38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2">
+        <v>31</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.00153</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1.5045714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>212521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>212521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>236438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>332435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>1577967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>709261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>1139508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>784700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2">
+        <v>21444.76</v>
+      </c>
+      <c r="G12" s="2">
+        <v>632384.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1076,181 +1849,311 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1">
-        <v>219.58</v>
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
+      </c>
+      <c r="E1" s="1">
+        <v>229.53</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42.43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1">
-        <v>470313</v>
+        <v>287192.13</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2">
-        <v>59.84</v>
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="E2" s="2">
+        <v>229.53</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42.43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="H2" s="2">
+        <v>287192.13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2165.17</v>
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20312.66</v>
+      </c>
+      <c r="F3" s="2">
+        <v>13.02</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="H3" s="2">
+        <v>264470.83</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2">
-        <v>983.38</v>
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="E4" s="2">
+        <v>92.075</v>
+      </c>
+      <c r="F4" s="2">
+        <v>101.95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="H4" s="2">
+        <v>276814.61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2">
-        <v>34.75</v>
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="E5" s="2">
+        <v>35.76</v>
+      </c>
+      <c r="F5" s="2">
+        <v>91.96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="H5" s="2">
+        <v>96974.27</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2165.17</v>
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="E6" s="2">
+        <v>322.793</v>
+      </c>
+      <c r="F6" s="2">
+        <v>24.63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="H6" s="2">
+        <v>234449.1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2">
-        <v>983.38</v>
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="E7" s="2">
+        <v>74.78</v>
+      </c>
+      <c r="F7" s="2">
+        <v>96.67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="H7" s="2">
+        <v>213175.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>91</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1111.357</v>
+      </c>
+      <c r="F8" s="2">
+        <v>16.98</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2">
+        <v>556482.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2">
+        <v>128.074</v>
+      </c>
+      <c r="F9" s="2">
+        <v>79.15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2">
+        <v>298931.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>93</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5525.521</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4.45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="2">
+        <v>725092.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2">
+        <v>37660.9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="2">
+        <v>281703.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>95</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2">
+        <v>273.75</v>
+      </c>
+      <c r="F12" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="2">
+        <v>234913.06</v>
       </c>
     </row>
   </sheetData>
@@ -1258,9 +2161,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1268,627 +2209,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>212521</v>
+        <v>87</v>
+      </c>
+      <c r="E1" s="1">
+        <v>9580000</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>236438</v>
+        <v>87</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9580000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>59</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>60</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>332435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>61</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>1577967</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>62</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>709261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>63</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1139508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>64</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>784700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>65</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>66</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="2">
-        <v>21444.76</v>
-      </c>
-      <c r="G11" s="2">
-        <v>632384.53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1">
-        <v>229.53</v>
-      </c>
-      <c r="F1" s="1">
-        <v>42.43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="1">
-        <v>287192.13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>88</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20312.66</v>
-      </c>
-      <c r="F2" s="2">
-        <v>13.02</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="2">
-        <v>264470.83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="2">
-        <v>92.075</v>
-      </c>
-      <c r="F3" s="2">
-        <v>101.95</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="2">
-        <v>276814.61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>90</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="2">
-        <v>35.76</v>
-      </c>
-      <c r="F4" s="2">
-        <v>91.96</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="2">
-        <v>96974.27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>91</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="2">
-        <v>322.793</v>
-      </c>
-      <c r="F5" s="2">
-        <v>24.63</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="2">
-        <v>234449.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>92</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="2">
-        <v>74.78</v>
-      </c>
-      <c r="F6" s="2">
-        <v>96.67</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="2">
-        <v>213175.47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>93</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1111.357</v>
-      </c>
-      <c r="F7" s="2">
-        <v>16.98</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="2">
-        <v>556482.26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>94</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="2">
-        <v>128.074</v>
-      </c>
-      <c r="F8" s="2">
-        <v>79.15</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="2">
-        <v>298931.68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>95</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5525.521</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4.45</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="2">
-        <v>725092.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>96</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="2">
-        <v>37660.9</v>
-      </c>
-      <c r="F10" s="2">
-        <v>7.48</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="2">
-        <v>281703.53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>97</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="2">
-        <v>273.75</v>
-      </c>
-      <c r="F11" s="2">
-        <v>29.1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="2">
-        <v>234913.06</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1">
-        <v>9580000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>123</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2280,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1909,50 +2291,50 @@
         <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1">
         <v>4372000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4372000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4801500</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>96</v>
@@ -1961,36 +2343,59 @@
         <v>99</v>
       </c>
       <c r="E3" s="2">
-        <v>10000000</v>
+        <v>4801500</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
-        <v>1650</v>
+        <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>129</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1650</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
+++ b/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>新建</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>大台北商業銀行城內分行</t>
@@ -1206,7 +1209,7 @@
         <v>470313</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>35</v>
@@ -1259,7 +1262,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>35</v>
@@ -1312,7 +1315,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>35</v>
@@ -1365,7 +1368,7 @@
         <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>35</v>
@@ -1418,7 +1421,7 @@
         <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>35</v>
@@ -1471,7 +1474,7 @@
         <v>32</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>35</v>
@@ -1524,7 +1527,7 @@
         <v>32</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>35</v>
@@ -1566,13 +1569,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -1587,13 +1590,13 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>50</v>
@@ -1608,13 +1611,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -1629,13 +1632,13 @@
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1650,13 +1653,13 @@
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -1671,16 +1674,16 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1692,16 +1695,16 @@
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1713,16 +1716,16 @@
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1734,16 +1737,16 @@
         <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1755,16 +1758,16 @@
         <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1776,16 +1779,16 @@
         <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1797,16 +1800,16 @@
         <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="2">
         <v>21444.76</v>
@@ -1820,16 +1823,16 @@
         <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1849,13 +1852,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1">
         <v>229.53</v>
@@ -1864,7 +1867,7 @@
         <v>42.43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1">
         <v>287192.13</v>
@@ -1875,13 +1878,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>229.53</v>
@@ -1890,7 +1893,7 @@
         <v>42.43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2">
         <v>287192.13</v>
@@ -1901,13 +1904,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>20312.66</v>
@@ -1916,7 +1919,7 @@
         <v>13.02</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2">
         <v>264470.83</v>
@@ -1927,13 +1930,13 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2">
         <v>92.075</v>
@@ -1942,7 +1945,7 @@
         <v>101.95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2">
         <v>276814.61</v>
@@ -1953,13 +1956,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2">
         <v>35.76</v>
@@ -1968,7 +1971,7 @@
         <v>91.96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" s="2">
         <v>96974.27</v>
@@ -1979,13 +1982,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2">
         <v>322.793</v>
@@ -1994,7 +1997,7 @@
         <v>24.63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2">
         <v>234449.1</v>
@@ -2005,13 +2008,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2">
         <v>74.78</v>
@@ -2020,7 +2023,7 @@
         <v>96.67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2">
         <v>213175.47</v>
@@ -2031,13 +2034,13 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2">
         <v>1111.357</v>
@@ -2046,7 +2049,7 @@
         <v>16.98</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2">
         <v>556482.26</v>
@@ -2057,13 +2060,13 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2">
         <v>128.074</v>
@@ -2072,7 +2075,7 @@
         <v>79.15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" s="2">
         <v>298931.68</v>
@@ -2083,13 +2086,13 @@
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2">
         <v>5525.521</v>
@@ -2098,7 +2101,7 @@
         <v>4.45</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" s="2">
         <v>725092.3</v>
@@ -2109,13 +2112,13 @@
         <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2">
         <v>37660.9</v>
@@ -2124,7 +2127,7 @@
         <v>7.48</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2">
         <v>281703.53</v>
@@ -2135,13 +2138,13 @@
         <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2">
         <v>273.75</v>
@@ -2150,7 +2153,7 @@
         <v>29.1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2">
         <v>234913.06</v>
@@ -2171,13 +2174,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2185,13 +2188,13 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2209,22 +2212,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1">
         <v>9580000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2232,22 +2235,22 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>9580000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2255,22 +2258,22 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2291,19 +2294,19 @@
         <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1">
         <v>4372000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2314,19 +2317,19 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
         <v>4372000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2337,19 +2340,19 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>4801500</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2360,19 +2363,19 @@
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2">
         <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2383,19 +2386,19 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2">
         <v>1650</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
+++ b/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -190,58 +190,67 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>大台北商業銀行城內分行</t>
   </si>
   <si>
+    <t>臺灣銀行板橋分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行光復分行</t>
+  </si>
+  <si>
+    <t>台北法院郵局（第20支局）</t>
+  </si>
+  <si>
+    <t>立法院郵局（第25支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行龍山分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行城内分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行中山分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行桃園分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行板橋分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行館前分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行光復分行</t>
-  </si>
-  <si>
-    <t>台北法院郵局（第20支局）</t>
-  </si>
-  <si>
-    <t>立法院郵局（第25支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行龍山分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行城内分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行中山分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行桃園分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>詹文馨</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>貝萊德環球資產配置基金</t>
@@ -1561,13 +1570,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1578,264 +1587,524 @@
         <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>212521</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>212521</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>236438</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>248</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2">
+        <v>771</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2">
         <v>57</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="2">
+        <v>332435</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="2">
         <v>58</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>332435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+        <v>75</v>
+      </c>
+      <c r="F7" s="2">
         <v>1577967</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2">
         <v>709261</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2">
         <v>1139508</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2">
         <v>784700</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+        <v>75</v>
+      </c>
+      <c r="F11" s="2">
         <v>739</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2">
-        <v>21444.76</v>
-      </c>
-      <c r="G12" s="2">
         <v>632384.53</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="F13" s="2">
+        <v>592191.61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1324</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="2">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1852,13 +2121,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>229.53</v>
@@ -1867,7 +2136,7 @@
         <v>42.43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1">
         <v>287192.13</v>
@@ -1875,16 +2144,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>229.53</v>
@@ -1893,7 +2162,7 @@
         <v>42.43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2">
         <v>287192.13</v>
@@ -1901,16 +2170,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2">
         <v>20312.66</v>
@@ -1919,7 +2188,7 @@
         <v>13.02</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H3" s="2">
         <v>264470.83</v>
@@ -1927,16 +2196,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2">
         <v>92.075</v>
@@ -1945,7 +2214,7 @@
         <v>101.95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2">
         <v>276814.61</v>
@@ -1953,16 +2222,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2">
         <v>35.76</v>
@@ -1971,7 +2240,7 @@
         <v>91.96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2">
         <v>96974.27</v>
@@ -1979,16 +2248,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2">
         <v>322.793</v>
@@ -1997,7 +2266,7 @@
         <v>24.63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2">
         <v>234449.1</v>
@@ -2005,16 +2274,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2">
         <v>74.78</v>
@@ -2023,7 +2292,7 @@
         <v>96.67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2">
         <v>213175.47</v>
@@ -2031,16 +2300,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2">
         <v>1111.357</v>
@@ -2049,7 +2318,7 @@
         <v>16.98</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H8" s="2">
         <v>556482.26</v>
@@ -2057,16 +2326,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2">
         <v>128.074</v>
@@ -2075,7 +2344,7 @@
         <v>79.15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H9" s="2">
         <v>298931.68</v>
@@ -2083,16 +2352,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2">
         <v>5525.521</v>
@@ -2101,7 +2370,7 @@
         <v>4.45</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H10" s="2">
         <v>725092.3</v>
@@ -2109,16 +2378,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2">
         <v>37660.9</v>
@@ -2127,7 +2396,7 @@
         <v>7.48</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H11" s="2">
         <v>281703.53</v>
@@ -2135,16 +2404,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2">
         <v>273.75</v>
@@ -2153,7 +2422,7 @@
         <v>29.1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H12" s="2">
         <v>234913.06</v>
@@ -2174,27 +2443,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2212,68 +2481,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>9580000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>9580000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2294,111 +2563,111 @@
         <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1">
         <v>4372000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>4372000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2">
         <v>4801500</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2">
         <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2">
         <v>1650</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
+++ b/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -253,6 +253,15 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
     <t>貝萊德環球資產配置基金</t>
   </si>
   <si>
@@ -284,6 +293,9 @@
   </si>
   <si>
     <t>貝德萊新興市場基金</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -2113,41 +2125,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1">
-        <v>229.53</v>
-      </c>
-      <c r="F1" s="1">
-        <v>42.43</v>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="1">
-        <v>287192.13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>75</v>
@@ -2167,13 +2200,34 @@
       <c r="H2" s="2">
         <v>287192.13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
@@ -2193,13 +2247,34 @@
       <c r="H3" s="2">
         <v>264470.83</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>75</v>
@@ -2219,13 +2294,34 @@
       <c r="H4" s="2">
         <v>276814.61</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>75</v>
@@ -2245,13 +2341,34 @@
       <c r="H5" s="2">
         <v>96974.27</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>75</v>
@@ -2271,13 +2388,34 @@
       <c r="H6" s="2">
         <v>234449.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>75</v>
@@ -2297,13 +2435,34 @@
       <c r="H7" s="2">
         <v>213175.47</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>75</v>
@@ -2323,13 +2482,34 @@
       <c r="H8" s="2">
         <v>556482.26</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>75</v>
@@ -2349,13 +2529,34 @@
       <c r="H9" s="2">
         <v>298931.68</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>75</v>
@@ -2375,13 +2576,34 @@
       <c r="H10" s="2">
         <v>725092.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>75</v>
@@ -2401,13 +2623,34 @@
       <c r="H11" s="2">
         <v>281703.53</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>75</v>
@@ -2426,6 +2669,27 @@
       </c>
       <c r="H12" s="2">
         <v>234913.06</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1324</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2443,10 +2707,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>75</v>
@@ -2457,10 +2721,10 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>75</v>
@@ -2481,22 +2745,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1">
         <v>9580000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2504,22 +2768,22 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>9580000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2527,22 +2791,22 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2563,19 +2827,19 @@
         <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1">
         <v>4372000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2586,19 +2850,19 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>4372000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2609,19 +2873,19 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2">
         <v>4801500</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2632,19 +2896,19 @@
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2">
         <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2655,19 +2919,19 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2">
         <v>1650</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
+++ b/legislator/property/output/normal/吳秉叡_2012-04-09_財產申報表_tmp8f8d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -298,64 +298,85 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
     <t>安泰人壽55年增值分紅養老壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押借款</t>
   </si>
   <si>
     <t>大台北商業銀行城內分行臺北市中正區重慶南路</t>
   </si>
   <si>
+    <t>大台北商業銀行城内分行臺北市中正區重慶南路</t>
+  </si>
+  <si>
     <t>101年02月16日</t>
   </si>
   <si>
+    <t>101年03月14曰</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>大台北商業銀行城内分行臺北市中正區重慶南路</t>
-  </si>
-  <si>
-    <t>101年03月14曰</t>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>雄裕建設股份有限公司</t>
   </si>
   <si>
+    <t>聖裕投資有限公司</t>
+  </si>
+  <si>
+    <t>益翔建設股份有限公司</t>
+  </si>
+  <si>
+    <t>福益實業股份有限公司</t>
+  </si>
+  <si>
     <t>臺北市忠孝東路五段508號14樓之3</t>
   </si>
   <si>
+    <t>新北市龍安路106巷1號4樓</t>
+  </si>
+  <si>
+    <t>新北市成泰路一段2號3樓</t>
+  </si>
+  <si>
     <t>100年03月11曰</t>
   </si>
   <si>
+    <t>100年08月29日</t>
+  </si>
+  <si>
+    <t>99年02月23日</t>
+  </si>
+  <si>
+    <t>78年07月01H</t>
+  </si>
+  <si>
     <t>個人投資</t>
   </si>
   <si>
-    <t>聖裕投資有限公司</t>
-  </si>
-  <si>
-    <t>益翔建設股份有限公司</t>
-  </si>
-  <si>
-    <t>福益實業股份有限公司</t>
-  </si>
-  <si>
-    <t>新北市龍安路106巷1號4樓</t>
-  </si>
-  <si>
-    <t>新北市成泰路一段2號3樓</t>
-  </si>
-  <si>
-    <t>100年08月29日</t>
-  </si>
-  <si>
-    <t>99年02月23日</t>
-  </si>
-  <si>
-    <t>78年07月01H</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2699,35 +2720,77 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2737,76 +2800,139 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1">
-        <v>9580000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
         <v>9580000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>103</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2816,33 +2942,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4372000</v>
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>123</v>
       </c>
@@ -2850,22 +2997,43 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>4372000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>124</v>
       </c>
@@ -2873,22 +3041,43 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2">
         <v>4801500</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>125</v>
       </c>
@@ -2896,22 +3085,43 @@
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2">
         <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>117</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>126</v>
       </c>
@@ -2919,19 +3129,40 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2">
         <v>1650</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1324</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
